--- a/CSV-Data/SubOccupancyCodeList.xlsx
+++ b/CSV-Data/SubOccupancyCodeList.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="SubOccupancyType" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SubOccupancyType!$A$1:$J$162</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="344">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -326,6 +329,12 @@
   </si>
   <si>
     <t xml:space="preserve">B-SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-S</t>
   </si>
   <si>
     <t xml:space="preserve">Wholesale Storage (Perishable)</t>
@@ -1056,7 +1065,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1078,6 +1087,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1122,7 +1137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1139,6 +1154,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1151,61 +1170,69 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J152" activeCellId="0" sqref="J152:J161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="43.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="43.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1235,10 +1262,10 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1268,10 +1295,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1301,10 +1328,10 @@
         <v>18</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1334,10 +1361,10 @@
         <v>19</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1367,10 +1394,10 @@
         <v>23</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1400,10 +1427,10 @@
         <v>26</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1433,10 +1460,10 @@
         <v>27</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1466,10 +1493,10 @@
         <v>29</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1499,10 +1526,10 @@
         <v>31</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1532,10 +1559,10 @@
         <v>33</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1565,10 +1592,10 @@
         <v>35</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1598,10 +1625,10 @@
         <v>37</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1631,10 +1658,10 @@
         <v>39</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1664,10 +1691,10 @@
         <v>41</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1697,10 +1724,10 @@
         <v>43</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1730,10 +1757,10 @@
         <v>45</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1763,10 +1790,10 @@
         <v>48</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1796,10 +1823,10 @@
         <v>50</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1829,10 +1856,10 @@
         <v>52</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1862,10 +1889,10 @@
         <v>54</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -1895,10 +1922,10 @@
         <v>56</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1928,10 +1955,10 @@
         <v>58</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1961,10 +1988,10 @@
         <v>60</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1994,10 +2021,10 @@
         <v>62</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -2027,10 +2054,10 @@
         <v>64</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -2060,10 +2087,10 @@
         <v>66</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -2093,10 +2120,10 @@
         <v>68</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -2126,10 +2153,10 @@
         <v>70</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2159,10 +2186,10 @@
         <v>72</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -2192,10 +2219,10 @@
         <v>74</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2225,10 +2252,10 @@
         <v>76</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2258,10 +2285,10 @@
         <v>78</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -2291,10 +2318,10 @@
         <v>80</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -2324,10 +2351,10 @@
         <v>82</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
@@ -2357,10 +2384,10 @@
         <v>84</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
@@ -2390,10 +2417,10 @@
         <v>86</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -2423,10 +2450,10 @@
         <v>88</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -2456,10 +2483,10 @@
         <v>90</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -2489,10 +2516,10 @@
         <v>92</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2522,10 +2549,10 @@
         <v>94</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
@@ -2555,10 +2582,10 @@
         <v>96</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>98</v>
       </c>
@@ -2588,10 +2615,10 @@
         <v>98</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
@@ -2621,11 +2648,11 @@
         <v>100</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2638,26 +2665,14 @@
       <c r="D45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>29</v>
-      </c>
       <c r="I45" s="1" t="s">
         <v>102</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -2672,25 +2687,25 @@
         <v>47</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="G46" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="G46" s="1" t="n">
-        <v>48</v>
-      </c>
       <c r="H46" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -2705,25 +2720,25 @@
         <v>47</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>49</v>
-      </c>
       <c r="H47" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>108</v>
       </c>
@@ -2738,25 +2753,25 @@
         <v>47</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="G48" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="G48" s="1" t="n">
-        <v>50</v>
-      </c>
       <c r="H48" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
@@ -2771,25 +2786,25 @@
         <v>47</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="G49" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G49" s="1" t="n">
-        <v>51</v>
-      </c>
       <c r="H49" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>110</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -2804,25 +2819,25 @@
         <v>47</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="G50" s="1" t="n">
-        <v>52</v>
-      </c>
       <c r="H50" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
@@ -2837,25 +2852,25 @@
         <v>47</v>
       </c>
       <c r="E51" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="J51" s="1" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>116</v>
       </c>
@@ -2870,25 +2885,25 @@
         <v>47</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="G52" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="G52" s="1" t="n">
-        <v>54</v>
-      </c>
       <c r="H52" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
@@ -2903,25 +2918,25 @@
         <v>47</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="G53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="G53" s="1" t="n">
-        <v>55</v>
-      </c>
       <c r="H53" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>118</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -2936,25 +2951,25 @@
         <v>47</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G54" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G54" s="1" t="n">
-        <v>56</v>
-      </c>
       <c r="H54" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
@@ -2966,61 +2981,61 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G55" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="G55" s="1" t="n">
-        <v>57</v>
-      </c>
       <c r="H55" s="1" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="J56" s="1" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
@@ -3032,28 +3047,28 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="G57" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="G57" s="1" t="n">
-        <v>59</v>
-      </c>
       <c r="H57" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>129</v>
       </c>
@@ -3065,28 +3080,28 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="G58" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="G58" s="1" t="n">
-        <v>60</v>
-      </c>
       <c r="H58" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>129</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
@@ -3098,28 +3113,28 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="G59" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G59" s="1" t="n">
-        <v>61</v>
-      </c>
       <c r="H59" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
@@ -3131,28 +3146,28 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G60" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>62</v>
-      </c>
       <c r="H60" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>133</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
@@ -3164,28 +3179,28 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F61" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="G61" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="G61" s="1" t="n">
-        <v>63</v>
-      </c>
       <c r="H61" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
@@ -3197,28 +3212,28 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="E62" s="1" t="n">
-        <v>125</v>
-      </c>
       <c r="F62" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="G62" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="G62" s="1" t="n">
-        <v>64</v>
-      </c>
       <c r="H62" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>139</v>
       </c>
@@ -3230,28 +3245,28 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F63" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="G63" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="G63" s="1" t="n">
-        <v>65</v>
-      </c>
       <c r="H63" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>141</v>
       </c>
@@ -3263,28 +3278,28 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="G64" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G64" s="1" t="n">
-        <v>66</v>
-      </c>
       <c r="H64" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
@@ -3296,28 +3311,28 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="G65" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="G65" s="1" t="n">
-        <v>67</v>
-      </c>
       <c r="H65" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>145</v>
       </c>
@@ -3329,28 +3344,28 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="G66" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="G66" s="1" t="n">
-        <v>68</v>
-      </c>
       <c r="H66" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
@@ -3362,28 +3377,28 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F67" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="G67" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="G67" s="1" t="n">
-        <v>69</v>
-      </c>
       <c r="H67" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -3395,28 +3410,28 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F68" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="G68" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="G68" s="1" t="n">
-        <v>70</v>
-      </c>
       <c r="H68" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>151</v>
       </c>
@@ -3428,28 +3443,28 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F69" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="G69" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G69" s="1" t="n">
-        <v>71</v>
-      </c>
       <c r="H69" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>153</v>
       </c>
@@ -3461,28 +3476,28 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F70" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G70" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="G70" s="1" t="n">
-        <v>72</v>
-      </c>
       <c r="H70" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
@@ -3494,28 +3509,28 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F71" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="G71" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="G71" s="1" t="n">
-        <v>73</v>
-      </c>
       <c r="H71" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -3527,28 +3542,28 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F72" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="G72" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="G72" s="1" t="n">
-        <v>74</v>
-      </c>
       <c r="H72" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>157</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -3560,28 +3575,28 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F73" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="G73" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="G73" s="1" t="n">
-        <v>75</v>
-      </c>
       <c r="H73" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>161</v>
       </c>
@@ -3593,28 +3608,28 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F74" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="G74" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="G74" s="1" t="n">
-        <v>76</v>
-      </c>
       <c r="H74" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>163</v>
       </c>
@@ -3626,28 +3641,28 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F75" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G75" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="G75" s="1" t="n">
-        <v>77</v>
-      </c>
       <c r="H75" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -3659,28 +3674,28 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F76" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="G76" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="G76" s="1" t="n">
-        <v>78</v>
-      </c>
       <c r="H76" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>167</v>
       </c>
@@ -3692,28 +3707,28 @@
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F77" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="G77" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="G77" s="1" t="n">
-        <v>79</v>
-      </c>
       <c r="H77" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
@@ -3725,28 +3740,28 @@
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F78" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="G78" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="G78" s="1" t="n">
-        <v>80</v>
-      </c>
       <c r="H78" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
@@ -3758,28 +3773,28 @@
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="G79" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G79" s="1" t="n">
-        <v>81</v>
-      </c>
       <c r="H79" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>173</v>
       </c>
@@ -3791,28 +3806,28 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F80" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G80" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="G80" s="1" t="n">
-        <v>82</v>
-      </c>
       <c r="H80" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>173</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
@@ -3824,28 +3839,28 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F81" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="G81" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="G81" s="1" t="n">
-        <v>83</v>
-      </c>
       <c r="H81" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>175</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>177</v>
       </c>
@@ -3857,28 +3872,28 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F82" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="G82" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="G82" s="1" t="n">
-        <v>84</v>
-      </c>
       <c r="H82" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>179</v>
       </c>
@@ -3890,28 +3905,28 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F83" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="G83" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="G83" s="1" t="n">
-        <v>85</v>
-      </c>
       <c r="H83" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>181</v>
       </c>
@@ -3923,28 +3938,28 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F84" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="G84" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="G84" s="1" t="n">
-        <v>86</v>
-      </c>
       <c r="H84" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
@@ -3956,28 +3971,28 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F85" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="G85" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="G85" s="1" t="n">
-        <v>87</v>
-      </c>
       <c r="H85" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>185</v>
       </c>
@@ -3989,28 +4004,28 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F86" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="G86" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="G86" s="1" t="n">
-        <v>88</v>
-      </c>
       <c r="H86" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>187</v>
       </c>
@@ -4022,28 +4037,28 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="G87" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="G87" s="1" t="n">
-        <v>89</v>
-      </c>
       <c r="H87" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>189</v>
       </c>
@@ -4055,28 +4070,28 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F88" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="G88" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="G88" s="1" t="n">
-        <v>90</v>
-      </c>
       <c r="H88" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>189</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>191</v>
       </c>
@@ -4088,28 +4103,28 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F89" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="G89" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G89" s="1" t="n">
-        <v>91</v>
-      </c>
       <c r="H89" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>191</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>193</v>
       </c>
@@ -4121,28 +4136,28 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F90" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G90" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="G90" s="1" t="n">
-        <v>92</v>
-      </c>
       <c r="H90" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>195</v>
       </c>
@@ -4154,28 +4169,28 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F91" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="G91" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="G91" s="1" t="n">
-        <v>93</v>
-      </c>
       <c r="H91" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>195</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>197</v>
       </c>
@@ -4187,28 +4202,28 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F92" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="G92" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="G92" s="1" t="n">
-        <v>94</v>
-      </c>
       <c r="H92" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>197</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>199</v>
       </c>
@@ -4220,28 +4235,28 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F93" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="G93" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="G93" s="1" t="n">
-        <v>95</v>
-      </c>
       <c r="H93" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>199</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>201</v>
       </c>
@@ -4253,28 +4268,28 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F94" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="G94" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="G94" s="1" t="n">
-        <v>96</v>
-      </c>
       <c r="H94" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>201</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>203</v>
       </c>
@@ -4286,28 +4301,28 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F95" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G95" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="G95" s="1" t="n">
-        <v>97</v>
-      </c>
       <c r="H95" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>203</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>205</v>
       </c>
@@ -4319,28 +4334,28 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F96" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="G96" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="G96" s="1" t="n">
-        <v>98</v>
-      </c>
       <c r="H96" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>205</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>207</v>
       </c>
@@ -4352,28 +4367,28 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F97" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="G97" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="G97" s="1" t="n">
-        <v>99</v>
-      </c>
       <c r="H97" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>207</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>209</v>
       </c>
@@ -4385,28 +4400,28 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F98" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="G98" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="G98" s="1" t="n">
-        <v>100</v>
-      </c>
       <c r="H98" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>209</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>211</v>
       </c>
@@ -4418,28 +4433,28 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F99" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="G99" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G99" s="1" t="n">
-        <v>101</v>
-      </c>
       <c r="H99" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>211</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
@@ -4451,28 +4466,28 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F100" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G100" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="G100" s="1" t="n">
-        <v>102</v>
-      </c>
       <c r="H100" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>213</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
@@ -4484,28 +4499,28 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F101" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G101" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="G101" s="1" t="n">
-        <v>103</v>
-      </c>
       <c r="H101" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>215</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>217</v>
       </c>
@@ -4517,28 +4532,28 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F102" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="G102" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="G102" s="1" t="n">
-        <v>104</v>
-      </c>
       <c r="H102" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
@@ -4550,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E103" s="1" t="n">
         <v>165</v>
@@ -4562,16 +4577,16 @@
         <v>104</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>219</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>221</v>
       </c>
@@ -4583,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>165</v>
@@ -4595,16 +4610,16 @@
         <v>104</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>221</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>223</v>
       </c>
@@ -4616,61 +4631,61 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="G105" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="G105" s="1" t="n">
-        <v>105</v>
-      </c>
       <c r="H105" s="1" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>223</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C106" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E106" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="F106" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="G106" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="H106" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="J106" s="1" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>228</v>
       </c>
@@ -4682,28 +4697,28 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="G107" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="G107" s="1" t="n">
-        <v>107</v>
-      </c>
       <c r="H107" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>228</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>230</v>
       </c>
@@ -4715,28 +4730,28 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="G108" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="G108" s="1" t="n">
-        <v>108</v>
-      </c>
       <c r="H108" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>230</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>232</v>
       </c>
@@ -4748,28 +4763,28 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="G109" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="G109" s="1" t="n">
-        <v>109</v>
-      </c>
       <c r="H109" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>232</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>234</v>
       </c>
@@ -4781,28 +4796,28 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="G110" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="G110" s="1" t="n">
-        <v>110</v>
-      </c>
       <c r="H110" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>234</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>236</v>
       </c>
@@ -4814,28 +4829,28 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="G111" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="G111" s="1" t="n">
-        <v>111</v>
-      </c>
       <c r="H111" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J111" s="1" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>238</v>
       </c>
@@ -4847,28 +4862,28 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G112" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="G112" s="1" t="n">
-        <v>112</v>
-      </c>
       <c r="H112" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>238</v>
       </c>
       <c r="J112" s="1" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>240</v>
       </c>
@@ -4880,28 +4895,28 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="G113" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="G113" s="1" t="n">
-        <v>113</v>
-      </c>
       <c r="H113" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>240</v>
       </c>
       <c r="J113" s="1" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>242</v>
       </c>
@@ -4913,28 +4928,28 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="G114" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="G114" s="1" t="n">
-        <v>114</v>
-      </c>
       <c r="H114" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>242</v>
       </c>
       <c r="J114" s="1" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>244</v>
       </c>
@@ -4946,28 +4961,28 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="G115" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="G115" s="1" t="n">
-        <v>115</v>
-      </c>
       <c r="H115" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>244</v>
       </c>
       <c r="J115" s="1" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>246</v>
       </c>
@@ -4979,61 +4994,61 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="G116" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="G116" s="1" t="n">
-        <v>116</v>
-      </c>
       <c r="H116" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>246</v>
       </c>
       <c r="J116" s="1" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C117" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E117" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="F117" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="G117" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="H117" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J117" s="1" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>251</v>
       </c>
@@ -5045,28 +5060,28 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="G118" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="G118" s="1" t="n">
-        <v>118</v>
-      </c>
       <c r="H118" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J118" s="1" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>253</v>
       </c>
@@ -5078,28 +5093,28 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="G119" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="G119" s="1" t="n">
-        <v>119</v>
-      </c>
       <c r="H119" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>253</v>
       </c>
       <c r="J119" s="1" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>255</v>
       </c>
@@ -5111,28 +5126,28 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="G120" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="G120" s="1" t="n">
-        <v>120</v>
-      </c>
       <c r="H120" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J120" s="1" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>257</v>
       </c>
@@ -5144,28 +5159,28 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="G121" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="G121" s="1" t="n">
-        <v>121</v>
-      </c>
       <c r="H121" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>257</v>
       </c>
       <c r="J121" s="1" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>259</v>
       </c>
@@ -5177,28 +5192,28 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G122" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="G122" s="1" t="n">
-        <v>122</v>
-      </c>
       <c r="H122" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>261</v>
       </c>
@@ -5210,61 +5225,61 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="G123" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="G123" s="1" t="n">
-        <v>123</v>
-      </c>
       <c r="H123" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>261</v>
       </c>
       <c r="J123" s="1" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C124" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E124" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="F124" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="G124" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="H124" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="J124" s="1" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>266</v>
       </c>
@@ -5276,28 +5291,28 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="G125" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="G125" s="1" t="n">
-        <v>125</v>
-      </c>
       <c r="H125" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>266</v>
       </c>
       <c r="J125" s="1" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>268</v>
       </c>
@@ -5309,28 +5324,28 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="G126" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="G126" s="1" t="n">
-        <v>126</v>
-      </c>
       <c r="H126" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>268</v>
       </c>
       <c r="J126" s="1" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>270</v>
       </c>
@@ -5342,28 +5357,28 @@
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G127" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="G127" s="1" t="n">
-        <v>127</v>
-      </c>
       <c r="H127" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>270</v>
       </c>
       <c r="J127" s="1" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>272</v>
       </c>
@@ -5375,28 +5390,28 @@
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="G128" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="G128" s="1" t="n">
-        <v>128</v>
-      </c>
       <c r="H128" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>272</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>274</v>
       </c>
@@ -5408,28 +5423,28 @@
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="G129" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="G129" s="1" t="n">
-        <v>129</v>
-      </c>
       <c r="H129" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>276</v>
       </c>
@@ -5441,28 +5456,28 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="G130" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="G130" s="1" t="n">
-        <v>130</v>
-      </c>
       <c r="H130" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>276</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>278</v>
       </c>
@@ -5474,28 +5489,28 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="G131" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="G131" s="1" t="n">
-        <v>131</v>
-      </c>
       <c r="H131" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>278</v>
       </c>
       <c r="J131" s="1" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>280</v>
       </c>
@@ -5507,28 +5522,28 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G132" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="G132" s="1" t="n">
-        <v>132</v>
-      </c>
       <c r="H132" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>280</v>
       </c>
       <c r="J132" s="1" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>282</v>
       </c>
@@ -5540,28 +5555,28 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="G133" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="G133" s="1" t="n">
-        <v>133</v>
-      </c>
       <c r="H133" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>282</v>
       </c>
       <c r="J133" s="1" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>284</v>
       </c>
@@ -5573,28 +5588,28 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="G134" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="G134" s="1" t="n">
-        <v>134</v>
-      </c>
       <c r="H134" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>284</v>
       </c>
       <c r="J134" s="1" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>286</v>
       </c>
@@ -5606,28 +5621,28 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="G135" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="G135" s="1" t="n">
-        <v>135</v>
-      </c>
       <c r="H135" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>286</v>
       </c>
       <c r="J135" s="1" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>288</v>
       </c>
@@ -5639,28 +5654,28 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="G136" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="G136" s="1" t="n">
-        <v>136</v>
-      </c>
       <c r="H136" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>288</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>290</v>
       </c>
@@ -5672,28 +5687,28 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G137" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="G137" s="1" t="n">
-        <v>137</v>
-      </c>
       <c r="H137" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>290</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>292</v>
       </c>
@@ -5705,28 +5720,28 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="G138" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="G138" s="1" t="n">
-        <v>138</v>
-      </c>
       <c r="H138" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>292</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>294</v>
       </c>
@@ -5738,28 +5753,28 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="G139" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="G139" s="1" t="n">
-        <v>139</v>
-      </c>
       <c r="H139" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>296</v>
       </c>
@@ -5771,28 +5786,28 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="G140" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="G140" s="1" t="n">
-        <v>140</v>
-      </c>
       <c r="H140" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>296</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>298</v>
       </c>
@@ -5804,61 +5819,61 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="G141" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="G141" s="1" t="n">
-        <v>141</v>
-      </c>
       <c r="H141" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>298</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C142" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="H142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E142" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="F142" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="G142" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="H142" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="J142" s="1" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>303</v>
       </c>
@@ -5870,28 +5885,28 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="G143" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="G143" s="1" t="n">
-        <v>143</v>
-      </c>
       <c r="H143" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>303</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>305</v>
       </c>
@@ -5903,28 +5918,28 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="G144" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="G144" s="1" t="n">
-        <v>144</v>
-      </c>
       <c r="H144" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>305</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>307</v>
       </c>
@@ -5936,28 +5951,28 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="G145" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="G145" s="1" t="n">
-        <v>145</v>
-      </c>
       <c r="H145" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>307</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>309</v>
       </c>
@@ -5969,28 +5984,28 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="G146" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="G146" s="1" t="n">
-        <v>146</v>
-      </c>
       <c r="H146" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>309</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>311</v>
       </c>
@@ -6002,28 +6017,28 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G147" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="G147" s="1" t="n">
-        <v>147</v>
-      </c>
       <c r="H147" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>311</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>313</v>
       </c>
@@ -6035,28 +6050,28 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="G148" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="G148" s="1" t="n">
-        <v>148</v>
-      </c>
       <c r="H148" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>313</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>315</v>
       </c>
@@ -6068,28 +6083,28 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="G149" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="G149" s="1" t="n">
-        <v>149</v>
-      </c>
       <c r="H149" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>315</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>317</v>
       </c>
@@ -6101,28 +6116,28 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="G150" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="G150" s="1" t="n">
-        <v>150</v>
-      </c>
       <c r="H150" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>317</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>319</v>
       </c>
@@ -6134,28 +6149,28 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="G151" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="G151" s="1" t="n">
-        <v>151</v>
-      </c>
       <c r="H151" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>321</v>
       </c>
@@ -6167,28 +6182,28 @@
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G152" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="G152" s="1" t="n">
-        <v>152</v>
-      </c>
       <c r="H152" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>321</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>323</v>
       </c>
@@ -6200,61 +6215,61 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="G153" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="G153" s="1" t="n">
-        <v>153</v>
-      </c>
       <c r="H153" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>323</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C154" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="F154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="G154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="H154" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E154" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="F154" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="G154" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="H154" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="J154" s="1" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>328</v>
       </c>
@@ -6266,28 +6281,28 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="G155" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="G155" s="1" t="n">
-        <v>155</v>
-      </c>
       <c r="H155" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>328</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>330</v>
       </c>
@@ -6299,28 +6314,28 @@
         <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="G156" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="G156" s="1" t="n">
-        <v>156</v>
-      </c>
       <c r="H156" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>330</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>332</v>
       </c>
@@ -6332,28 +6347,28 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="G157" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="G157" s="1" t="n">
-        <v>157</v>
-      </c>
       <c r="H157" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>332</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>334</v>
       </c>
@@ -6365,28 +6380,28 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="G158" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="G158" s="1" t="n">
-        <v>158</v>
-      </c>
       <c r="H158" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>334</v>
       </c>
       <c r="J158" s="1" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>336</v>
       </c>
@@ -6398,28 +6413,28 @@
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E159" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="G159" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="G159" s="1" t="n">
-        <v>159</v>
-      </c>
       <c r="H159" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>336</v>
       </c>
       <c r="J159" s="1" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>338</v>
       </c>
@@ -6431,28 +6446,28 @@
         <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="G160" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="G160" s="1" t="n">
-        <v>160</v>
-      </c>
       <c r="H160" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>338</v>
       </c>
       <c r="J160" s="1" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>340</v>
       </c>
@@ -6464,28 +6479,62 @@
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="G161" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="G161" s="1" t="n">
-        <v>161</v>
-      </c>
       <c r="H161" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>340</v>
       </c>
       <c r="J161" s="1" t="n">
-        <v>184</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="F162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="G162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="H162" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J162" s="1" t="n">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J162"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6493,5 +6542,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CSV-Data/SubOccupancyCodeList.xlsx
+++ b/CSV-Data/SubOccupancyCodeList.xlsx
@@ -1065,7 +1065,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1087,12 +1087,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1137,7 +1131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,10 +1145,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1181,8 +1171,8 @@
   </sheetPr>
   <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2585,7 +2575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>98</v>
       </c>
@@ -2618,7 +2608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
@@ -2652,7 +2642,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2665,6 +2655,18 @@
       <c r="D45" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E45" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>29</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>102</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>47</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>104</v>
@@ -2705,7 +2707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>48</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>106</v>
@@ -2738,7 +2740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>108</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>49</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>108</v>
@@ -2771,7 +2773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>110</v>
@@ -2804,7 +2806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>51</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>112</v>
@@ -2837,7 +2839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
@@ -2861,7 +2863,7 @@
         <v>52</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>114</v>
@@ -2870,7 +2872,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>116</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>53</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>116</v>
@@ -2903,7 +2905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>54</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>118</v>
@@ -2936,7 +2938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -2960,7 +2962,7 @@
         <v>55</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>120</v>
@@ -2969,7 +2971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>56</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>122</v>
